--- a/Community/CSO_Notification.xlsx
+++ b/Community/CSO_Notification.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismael\ArcGIS\My Survey Designs\CSO Notification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phil9289\Downloads\Survey123\Community\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="6384" windowWidth="33744" windowHeight="19104" tabRatio="318"/>
+    <workbookView xWindow="14160" yWindow="6390" windowWidth="33750" windowHeight="19110" tabRatio="318"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2709,9 +2709,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>CSOID</t>
-  </si>
-  <si>
     <t>Outfall ID</t>
   </si>
   <si>
@@ -2721,27 +2718,18 @@
     <t>text</t>
   </si>
   <si>
-    <t>CSOLOCALE</t>
-  </si>
-  <si>
     <t>CSO Location</t>
   </si>
   <si>
     <t>esriFieldTypeString</t>
   </si>
   <si>
-    <t>CSOSTART</t>
-  </si>
-  <si>
     <t>CSO Start</t>
   </si>
   <si>
     <t>esriFieldTypeDate</t>
   </si>
   <si>
-    <t>CSOEND</t>
-  </si>
-  <si>
     <t>CSO End</t>
   </si>
   <si>
@@ -2751,9 +2739,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>WATERBODY</t>
-  </si>
-  <si>
     <t>Affected Waterbody</t>
   </si>
   <si>
@@ -2763,9 +2748,6 @@
     <t>integer</t>
   </si>
   <si>
-    <t>GALLONS</t>
-  </si>
-  <si>
     <t>Gallons</t>
   </si>
   <si>
@@ -2775,9 +2757,6 @@
     <t>integer</t>
   </si>
   <si>
-    <t>TOTALDAYS</t>
-  </si>
-  <si>
     <t>Total Days to Avoid Water</t>
   </si>
   <si>
@@ -2790,7 +2769,28 @@
     <t>Combined Sewer Overflow</t>
   </si>
   <si>
-    <t>${CSOLOCALE}</t>
+    <t>${csolocale}</t>
+  </si>
+  <si>
+    <t>csolocale</t>
+  </si>
+  <si>
+    <t>csoid</t>
+  </si>
+  <si>
+    <t>csostart</t>
+  </si>
+  <si>
+    <t>csoend</t>
+  </si>
+  <si>
+    <t>totaldays</t>
+  </si>
+  <si>
+    <t>waterbody</t>
+  </si>
+  <si>
+    <t>gallons</t>
   </si>
 </sst>
 </file>
@@ -3078,14 +3078,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3118,6 +3110,14 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3201,15 +3201,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:X153" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:X153" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:X153"/>
   <tableColumns count="24">
     <tableColumn id="1" name="type"/>
     <tableColumn id="2" name="name"/>
-    <tableColumn id="3" name="label" dataDxfId="5"/>
-    <tableColumn id="4" name="hint" dataDxfId="4"/>
+    <tableColumn id="3" name="label" dataDxfId="4"/>
+    <tableColumn id="4" name="hint" dataDxfId="3"/>
     <tableColumn id="5" name="constraint"/>
-    <tableColumn id="6" name="constraint_message" dataDxfId="3"/>
+    <tableColumn id="6" name="constraint_message" dataDxfId="2"/>
     <tableColumn id="7" name="required"/>
     <tableColumn id="20" name="required_message"/>
     <tableColumn id="8" name="appearance"/>
@@ -3543,7 +3543,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3585,7 +3585,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3608,16 +3608,16 @@
   <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C13" sqref="C13"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1"/>
-    <col min="6" max="6" width="24.44140625" style="1"/>
+    <col min="1" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="1"/>
+    <col min="6" max="6" width="24.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="27" customFormat="1" ht="16.5" customHeight="1">
@@ -3702,41 +3702,41 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="3" spans="1:32" ht="13.2">
+    <row r="3" spans="1:32" ht="12.75">
       <c r="A3" t="s">
         <v>891</v>
       </c>
       <c r="B3" t="s">
+        <v>914</v>
+      </c>
+      <c r="C3" t="s">
         <v>892</v>
       </c>
-      <c r="C3" t="s">
+      <c r="U3" t="s">
         <v>893</v>
-      </c>
-      <c r="U3" t="s">
-        <v>894</v>
       </c>
       <c r="V3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="13.2">
+    <row r="4" spans="1:32" ht="12.75">
       <c r="A4" t="s">
+        <v>894</v>
+      </c>
+      <c r="B4" t="s">
+        <v>913</v>
+      </c>
+      <c r="C4" t="s">
         <v>895</v>
       </c>
-      <c r="B4" t="s">
+      <c r="U4" t="s">
         <v>896</v>
-      </c>
-      <c r="C4" t="s">
-        <v>897</v>
-      </c>
-      <c r="U4" t="s">
-        <v>898</v>
       </c>
       <c r="V4">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="13.2">
+    <row r="5" spans="1:32" ht="12.75">
       <c r="A5" t="s">
         <v>889</v>
       </c>
@@ -3744,89 +3744,89 @@
         <v>890</v>
       </c>
       <c r="C5" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="13.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="12.75">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>899</v>
+        <v>915</v>
       </c>
       <c r="C6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="J6" t="s">
         <v>108</v>
       </c>
       <c r="U6" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="13.2">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="12.75">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
+        <v>916</v>
+      </c>
+      <c r="C7" t="s">
+        <v>899</v>
+      </c>
+      <c r="U7" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="12.75">
+      <c r="A8" t="s">
+        <v>907</v>
+      </c>
+      <c r="B8" t="s">
+        <v>917</v>
+      </c>
+      <c r="C8" t="s">
+        <v>908</v>
+      </c>
+      <c r="U8" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="12.75">
+      <c r="A9" t="s">
+        <v>901</v>
+      </c>
+      <c r="B9" t="s">
+        <v>918</v>
+      </c>
+      <c r="C9" t="s">
         <v>902</v>
       </c>
-      <c r="C7" t="s">
+      <c r="U9" t="s">
         <v>903</v>
-      </c>
-      <c r="U7" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="13.2">
-      <c r="A8" t="s">
-        <v>913</v>
-      </c>
-      <c r="B8" t="s">
-        <v>914</v>
-      </c>
-      <c r="C8" t="s">
-        <v>915</v>
-      </c>
-      <c r="U8" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="13.2">
-      <c r="A9" t="s">
-        <v>905</v>
-      </c>
-      <c r="B9" t="s">
-        <v>906</v>
-      </c>
-      <c r="C9" t="s">
-        <v>907</v>
-      </c>
-      <c r="U9" t="s">
-        <v>908</v>
       </c>
       <c r="V9">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="13.2">
+    <row r="10" spans="1:32" ht="12.75">
       <c r="A10" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B10" t="s">
-        <v>910</v>
+        <v>919</v>
       </c>
       <c r="C10" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="U10" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <conditionalFormatting sqref="B2:B150">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <dataValidations xWindow="732" yWindow="283" count="20">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Constraint" prompt="Can be used with integer and decimal types. Limit the range of numbers that can be entered (e.g., .&gt;0 and .&lt;100). " sqref="E154:E1048576"/>
@@ -3904,11 +3904,11 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3948,13 +3948,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1">
@@ -3980,12 +3980,12 @@
         <v>877</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="C2" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
     </row>
   </sheetData>
@@ -4003,11 +4003,11 @@
       <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="74.44140625" customWidth="1"/>
-    <col min="3" max="3" width="52.77734375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -4045,7 +4045,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.4">
+    <row r="6" spans="1:5" ht="25.5">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26.4">
+    <row r="7" spans="1:5" ht="25.5">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="26.4">
+    <row r="18" spans="1:2" ht="25.5">
       <c r="A18" s="1" t="s">
         <v>112</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="26.4">
+    <row r="19" spans="1:2" ht="25.5">
       <c r="A19" s="1" t="s">
         <v>217</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="26.4">
+    <row r="20" spans="1:2" ht="25.5">
       <c r="A20" s="1" t="s">
         <v>218</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="39.6">
+    <row r="21" spans="1:2" ht="38.25">
       <c r="A21" s="1" t="s">
         <v>230</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="26.4">
+    <row r="97" spans="1:2" ht="25.5">
       <c r="A97" s="1" t="s">
         <v>125</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="26.4">
+    <row r="124" spans="1:2" ht="25.5">
       <c r="A124" s="1" t="s">
         <v>176</v>
       </c>
